--- a/templates/RSTK-9120_SYDATAT-Division To Division .xlsx
+++ b/templates/RSTK-9120_SYDATAT-Division To Division .xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\provar\rsqasampleproj\rsqasampleproj\templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{483E3DAF-0E42-43FA-A189-96110F09257E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2145154B-1523-4518-A282-A638FFC565FA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{AAD229B4-EC82-43D3-8B6F-DC67705348E6}"/>
   </bookViews>
@@ -626,7 +626,7 @@
   <dimension ref="A1:Q38"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="K15" sqref="K15"/>
+      <selection activeCell="C2" sqref="C2:C38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -711,7 +711,7 @@
         <v>23</v>
       </c>
       <c r="C2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D2" t="s">
         <v>18</v>
@@ -811,7 +811,7 @@
         <v>23</v>
       </c>
       <c r="C4" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D4" t="s">
         <v>18</v>
@@ -917,7 +917,7 @@
         <v>23</v>
       </c>
       <c r="C6" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D6" t="s">
         <v>18</v>
@@ -1023,7 +1023,7 @@
         <v>23</v>
       </c>
       <c r="C8" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D8" t="s">
         <v>18</v>
@@ -1129,7 +1129,7 @@
         <v>23</v>
       </c>
       <c r="C10" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D10" t="s">
         <v>18</v>
@@ -1235,7 +1235,7 @@
         <v>23</v>
       </c>
       <c r="C12" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D12" t="s">
         <v>18</v>
@@ -1332,7 +1332,7 @@
         <v>23</v>
       </c>
       <c r="C14" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D14" t="s">
         <v>18</v>
@@ -1420,7 +1420,7 @@
         <v>23</v>
       </c>
       <c r="C16" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D16" t="s">
         <v>18</v>
@@ -1508,7 +1508,7 @@
         <v>23</v>
       </c>
       <c r="C18" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D18" t="s">
         <v>18</v>
@@ -1596,7 +1596,7 @@
         <v>23</v>
       </c>
       <c r="C20" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D20" t="s">
         <v>18</v>
@@ -1684,7 +1684,7 @@
         <v>23</v>
       </c>
       <c r="C22" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D22" t="s">
         <v>18</v>
@@ -1784,7 +1784,7 @@
         <v>23</v>
       </c>
       <c r="C24" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D24" t="s">
         <v>18</v>
@@ -1884,7 +1884,7 @@
         <v>23</v>
       </c>
       <c r="C26" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D26" t="s">
         <v>18</v>
@@ -1984,7 +1984,7 @@
         <v>23</v>
       </c>
       <c r="C28" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D28" t="s">
         <v>18</v>
@@ -2084,7 +2084,7 @@
         <v>23</v>
       </c>
       <c r="C30" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D30" t="s">
         <v>18</v>
@@ -2181,7 +2181,7 @@
         <v>23</v>
       </c>
       <c r="C32" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D32" t="s">
         <v>18</v>
@@ -2275,7 +2275,7 @@
         <v>23</v>
       </c>
       <c r="C34" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D34" t="s">
         <v>18</v>
@@ -2369,7 +2369,7 @@
         <v>23</v>
       </c>
       <c r="C36" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D36" t="s">
         <v>18</v>
@@ -2463,7 +2463,7 @@
         <v>23</v>
       </c>
       <c r="C38" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D38" t="s">
         <v>18</v>
